--- a/Research Corpus/Data by Source/Source_5|An Effective Sharding Consensus Algorithm for Blockchain Systems.xlsx
+++ b/Research Corpus/Data by Source/Source_5|An Effective Sharding Consensus Algorithm for Blockchain Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yawu/Desktop/Repos/FT324_SLR/Research Corpus/Data by Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD3EC22-57AE-304C-A6BE-FBF269E6095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB3769D-F232-2846-9FC2-A90EBE9C169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{754419C1-0F3F-3647-A532-9827BA1C8B7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Consensus</t>
   </si>
@@ -84,20 +84,22 @@
   </si>
   <si>
     <t>DAGs</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple shards must work together, increasing security risks, If one shard is compromised, the whole network is threatened </t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,17 +125,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -169,9 +171,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{115EDC2F-E161-E541-948B-57B318B7A756}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10" xr:uid="{115EDC2F-E161-E541-948B-57B318B7A756}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{115EDC2F-E161-E541-948B-57B318B7A756}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowShown="0">
+  <autoFilter ref="A1:H10" xr:uid="{115EDC2F-E161-E541-948B-57B318B7A756}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{24CAED38-1FCD-B84A-9A81-286811F58FD3}" name="Consensus"/>
     <tableColumn id="2" xr3:uid="{1FC090FA-D53D-9945-9980-31B77B7C1A40}" name="TPS"/>
     <tableColumn id="3" xr3:uid="{0CF134D6-57BB-DE46-84F0-9B00275184E1}" name="Energy Use per Transaction"/>
@@ -179,6 +181,7 @@
     <tableColumn id="5" xr3:uid="{2B11CD8D-8F08-3C4D-A40A-DE6AAEB5FE56}" name="% of nodes required to take over network" dataDxfId="0" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{3AE017AC-E138-5C46-9867-98FB57A97641}" name="Strengths"/>
     <tableColumn id="7" xr3:uid="{0A1B6FA4-07C8-3149-B875-83ABDFEE8046}" name="Weaknesses"/>
+    <tableColumn id="8" xr3:uid="{B4FA1296-11EC-C348-9CE7-CBACC8B3EA1D}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B43E01C-2ABF-B944-8ED2-A207F04135F0}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +521,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,60 +543,243 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
